--- a/Протокол_6_ЕльсуковПавел.xlsx
+++ b/Протокол_6_ЕльсуковПавел.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\Задание для деда\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59958631-1DE2-46E9-B6D0-2588E4838827}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B571622-D240-4E65-8EF2-BE67C4EF1024}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -280,6 +280,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -309,12 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,27 +1369,27 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1414,25 +1414,25 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="14">
         <v>5</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="14">
         <v>6</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="14">
         <v>7</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="15">
         <v>8</v>
       </c>
     </row>
